--- a/src/Chapter-4使用python批量处理工作簿表/公司/西安.xlsx
+++ b/src/Chapter-4使用python批量处理工作簿表/公司/西安.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGF\Documents\GitHub\TianXiaPy\PyExcel\src\Chapter-4使用python批量处理工作簿表\公司\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD62FF79-6087-4F7A-B5DA-12C797993BB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98405CC-2416-47EC-A4EE-8971AA4C9B80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{2C0F0838-175B-40BD-BAEE-18E5C51BD47C}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{2C0F0838-175B-40BD-BAEE-18E5C51BD47C}"/>
   </bookViews>
   <sheets>
     <sheet name="封神榜" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>红榜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>TDD_PAD</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>为</t>
   </si>
 </sst>
 </file>
@@ -497,7 +506,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5A89C5-CE4B-4912-B294-69428EFE7FAB}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,6 +528,132 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
